--- a/slides/courses/understandingPolicy/schedule_editable.xlsx
+++ b/slides/courses/understandingPolicy/schedule_editable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Seafile\WW_employed\01_Teaching\01_courses\02_Analysis_of_Public_Policy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD038413-3E0C-45F7-ACCC-97EE0F665077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E5FCF8-73EB-4354-B592-0CA54AB8D31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="29010" windowHeight="16200" xr2:uid="{78EE7E86-4C0C-459A-920A-BF97E70E6E2D}"/>
+    <workbookView xWindow="26010" yWindow="0" windowWidth="29010" windowHeight="16200" xr2:uid="{78EE7E86-4C0C-459A-920A-BF97E70E6E2D}"/>
   </bookViews>
   <sheets>
     <sheet name="understanding" sheetId="1" r:id="rId1"/>
@@ -81,9 +81,6 @@
     <t>Economic Perspective I: Elitism</t>
   </si>
   <si>
-    <t>经济视角 I：公共政策是精英决定的？</t>
-  </si>
-  <si>
     <t>Socioeconomic Perspective II: Group Theory</t>
   </si>
   <si>
@@ -150,18 +147,12 @@
     <t>@Easton1957;@ChengTongShunXingXiJing2017</t>
   </si>
   <si>
-    <t>@McCombsEtAl2014</t>
-  </si>
-  <si>
     <t>@Lane1994;@XuZhiChun1992</t>
   </si>
   <si>
     <t>@Easton1967; @BaruahEaston1987</t>
   </si>
   <si>
-    <t>@Fisher2011</t>
-  </si>
-  <si>
     <t>@GoodinDryzek1980;@ZhaoWenJieDingFanLin2015</t>
   </si>
   <si>
@@ -231,9 +222,6 @@
     <t>@Fischer1985; @GrindleGrindle1977; @Swaffield1998; @LiuWei2015; @YuLiEtAl2007; @ZhaoJingXieLan2017</t>
   </si>
   <si>
-    <t>@Gerring2004</t>
-  </si>
-  <si>
     <t>@RihouxEtAl2011</t>
   </si>
   <si>
@@ -259,6 +247,18 @@
   </si>
   <si>
     <t>Nope</t>
+  </si>
+  <si>
+    <t>@WangQingLiuZiDan2022</t>
+  </si>
+  <si>
+    <t>@ChenYunSong2022</t>
+  </si>
+  <si>
+    <t>@LewandowskyEtAl2019</t>
+  </si>
+  <si>
+    <t>社会视角：公共政策是精英决定的？</t>
   </si>
 </sst>
 </file>
@@ -617,7 +617,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -653,13 +653,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -670,13 +670,13 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -687,13 +687,13 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -704,13 +704,13 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -721,13 +721,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -735,169 +735,169 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
       <c r="C15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
